--- a/file/standard/学工_数据元素.xlsx
+++ b/file/standard/学工_数据元素.xlsx
@@ -1,43 +1,296 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaufi/Documents/工作文档/CDSP产品/标准化推行物料/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A51DB5E-A167-FC4B-BFF8-EDA8BFEA4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{259F80EA-28E4-E348-8805-F5FB75425ED2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="对外提供数据" sheetId="1" r:id="rId1"/>
+    <sheet name="外部数据要求" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>精度</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>数据项名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表/视图名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块/App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职工管理域</t>
+  </si>
+  <si>
+    <t>教职工号</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>值域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务域</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务子域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常管理</t>
+  </si>
+  <si>
+    <t>进修培训</t>
+  </si>
+  <si>
+    <t>教工_教职工_国内进修学习信息</t>
+  </si>
+  <si>
+    <t>记录ID</t>
+  </si>
+  <si>
+    <t>进修性质</t>
+  </si>
+  <si>
+    <t>培训、进修班类别</t>
+  </si>
+  <si>
+    <t>进修班名称</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>学习方式</t>
+  </si>
+  <si>
+    <t>教育类别</t>
+  </si>
+  <si>
+    <t>进修专业</t>
+  </si>
+  <si>
+    <t>进修方向</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>主办单位</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>业务分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准表/视图名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属院系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务线缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研管理域</t>
+  </si>
+  <si>
+    <t>成果管理</t>
+  </si>
+  <si>
+    <t>科研成果</t>
+  </si>
+  <si>
+    <t>科研_著作_作者信息</t>
+  </si>
+  <si>
+    <t>著作编号</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>署名顺序</t>
+  </si>
+  <si>
+    <t>贡献率</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>撰写字数</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +298,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +374,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +386,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +403,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +433,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +485,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +653,582 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2220BBE1-103B-E343-80A4-9C0664C9E383}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9936F62-DD29-D548-82CC-2718E746F9F1}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>60</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="7">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>